--- a/TongHop_Sprint/ProductBacklog_NHOM1.xlsx
+++ b/TongHop_Sprint/ProductBacklog_NHOM1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sthuflitedu-my.sharepoint.com/personal/22dh110220_st_huflit_edu_vn/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B05EF14B-60A5-46D5-9C47-C7449F10F634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA74B18-43E1-41AA-832B-95A1B59AA58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-84" yWindow="-84" windowWidth="23208" windowHeight="12408" tabRatio="798" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-84" yWindow="-84" windowWidth="23208" windowHeight="12408" tabRatio="798" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
   <si>
     <t>TEAM DEVELOPMENT STRUCTURE</t>
   </si>
@@ -168,19 +168,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Khuyến mãi: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tên chương trình khuyến mãi, thời gian áp dụng ,điều kiện áp dụng, phần trăm giảm giá</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Thể loại:</t>
     </r>
     <r>
@@ -482,9 +469,6 @@
   </si>
   <si>
     <t>Quản lý nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Theo dõi lịch sử giao dịch với nhà cung cấp: Admin có thể xem lịch sử các đơn nhập hàng từ từng nhà cung cấp, bao gồm ngày nhập, số lượng, giá trị,...</t>
   </si>
   <si>
     <t>Cập nhật thông tin nhà cung cấp: Admin có thể chỉnh sửa thông tin của nhà cung cấp hiện có</t>
@@ -1668,7 +1652,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
@@ -1822,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1873,26 +1857,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:5" s="13" customFormat="1">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="13" customFormat="1">
-      <c r="A10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" s="10" customFormat="1">
       <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="10" customFormat="1">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1921,14 +1905,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:1" s="13" customFormat="1"/>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="13" customFormat="1"/>
-    <row r="21" spans="1:1" ht="15">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1942,20 +1926,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:1" s="13" customFormat="1"/>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="13" customFormat="1"/>
-    <row r="26" spans="1:1" ht="15">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="10" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1968,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B4BC31-BEF7-47A3-A02E-006F09C10F5E}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.45"/>
@@ -1986,24 +1965,24 @@
     <row r="1" spans="1:3" ht="12.75">
       <c r="A1" s="29"/>
       <c r="B1" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="12.75">
       <c r="A2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75">
       <c r="A3" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="53"/>
@@ -2013,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="33">
         <v>1</v>
@@ -2024,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="33">
         <v>2</v>
@@ -2035,7 +2014,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="33">
         <v>3</v>
@@ -2046,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="33">
         <v>3</v>
@@ -2054,7 +2033,7 @@
     </row>
     <row r="8" spans="1:3" ht="12.75">
       <c r="A8" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="52"/>
       <c r="C8" s="53"/>
@@ -2065,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="33">
         <v>2</v>
@@ -2077,7 +2056,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="33">
         <v>2</v>
@@ -2089,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="33">
         <v>2</v>
@@ -2101,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="33">
         <v>2</v>
@@ -2113,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="33">
         <v>2</v>
@@ -2125,7 +2104,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="33">
         <v>2</v>
@@ -2133,7 +2112,7 @@
     </row>
     <row r="15" spans="1:3" ht="12.75">
       <c r="A15" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="55"/>
@@ -2141,7 +2120,7 @@
     <row r="16" spans="1:3" ht="12.75">
       <c r="A16" s="38"/>
       <c r="B16" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="38"/>
     </row>
@@ -2150,7 +2129,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="42">
         <v>2</v>
@@ -2161,7 +2140,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="42">
         <v>2</v>
@@ -2172,7 +2151,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="42">
         <v>2</v>
@@ -2181,7 +2160,7 @@
     <row r="20" spans="1:3" ht="12.75">
       <c r="A20" s="44"/>
       <c r="B20" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="46"/>
     </row>
@@ -2191,7 +2170,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="42">
         <v>3</v>
@@ -2203,7 +2182,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="42">
         <v>3</v>
@@ -2215,7 +2194,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="42">
         <v>3</v>
@@ -2224,7 +2203,7 @@
     <row r="24" spans="1:3" ht="12.75">
       <c r="A24" s="44"/>
       <c r="B24" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="46"/>
     </row>
@@ -2234,7 +2213,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="42">
         <v>2</v>
@@ -2246,7 +2225,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="42">
         <v>2</v>
@@ -2255,7 +2234,7 @@
     <row r="27" spans="1:3" ht="12.75">
       <c r="A27" s="44"/>
       <c r="B27" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="46"/>
     </row>
@@ -2265,7 +2244,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="42">
         <v>2</v>
@@ -2277,7 +2256,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="42">
         <v>2</v>
@@ -2289,7 +2268,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="42">
         <v>2</v>
@@ -2298,7 +2277,7 @@
     <row r="31" spans="1:3" ht="12.75">
       <c r="A31" s="44"/>
       <c r="B31" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="46"/>
     </row>
@@ -2307,7 +2286,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="42">
         <v>2</v>
@@ -2315,40 +2294,29 @@
     </row>
     <row r="33" spans="1:3" ht="12.75">
       <c r="A33" s="40">
-        <f>A32+1</f>
+        <f t="shared" ref="A33:A34" si="1">A32+1</f>
         <v>23</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75">
-      <c r="A34" s="40">
-        <f t="shared" ref="A34:A35" si="1">A33+1</f>
+      <c r="A34" s="49">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B34" s="43" t="s">
-        <v>74</v>
+      <c r="B34" s="50" t="s">
+        <v>73</v>
       </c>
       <c r="C34" s="42">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.75">
-      <c r="A35" s="49">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="42">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="35" spans="1:3" ht="12"/>
     <row r="36" spans="1:3" ht="12"/>
     <row r="37" spans="1:3" ht="12"/>
   </sheetData>
@@ -2365,9 +2333,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -2386,7 +2354,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1">
       <c r="A1" s="58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -2417,34 +2385,34 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>43</v>
-      </c>
       <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2452,7 +2420,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="65">
         <f ca="1">SUM(C7:C34)</f>
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2461,13 +2429,13 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <f ca="1">SUM(C7:C34)</f>
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="13.15">
       <c r="A6" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -2484,11 +2452,11 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="66">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>12</v>
@@ -2507,7 +2475,7 @@
       </c>
       <c r="I7" s="2">
         <f ca="1">RANDBETWEEN(1,8)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -2516,11 +2484,11 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="66">
         <f t="shared" ref="C8:C29" ca="1" si="0">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>14</v>
@@ -2539,7 +2507,7 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" ref="I8:I24" ca="1" si="1">RANDBETWEEN(1,8)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -2548,11 +2516,11 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>14</v>
@@ -2571,7 +2539,7 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -2580,11 +2548,11 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>14</v>
@@ -2603,7 +2571,7 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -2612,11 +2580,11 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>16</v>
@@ -2625,17 +2593,17 @@
         <v>45635</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G11" s="70">
         <v>45635</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -2644,11 +2612,11 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>16</v>
@@ -2657,17 +2625,17 @@
         <v>45635</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G12" s="70">
         <v>45635</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -2676,11 +2644,11 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>16</v>
@@ -2689,17 +2657,17 @@
         <v>45635</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" s="70">
         <v>45635</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -2708,11 +2676,11 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>16</v>
@@ -2721,17 +2689,17 @@
         <v>45635</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G14" s="70">
         <v>45635</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -2740,11 +2708,11 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>16</v>
@@ -2753,23 +2721,23 @@
         <v>45635</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G15" s="70">
         <v>45635</v>
       </c>
       <c r="H15" s="72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="13.15" customHeight="1">
       <c r="A16" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
@@ -2786,26 +2754,26 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H17" s="72" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -2818,30 +2786,30 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G18" s="73" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H18" s="72" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -2850,30 +2818,30 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G19" s="73" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H19" s="72" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J19" s="2"/>
     </row>
@@ -2882,26 +2850,26 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H20" s="72" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -2914,26 +2882,26 @@
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G21" s="73" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -2946,7 +2914,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" s="66">
         <f t="shared" ca="1" si="0"/>
@@ -2956,20 +2924,20 @@
         <v>16</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" s="2"/>
     </row>
@@ -2978,30 +2946,30 @@
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C23" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J23" s="2"/>
     </row>
@@ -3010,26 +2978,26 @@
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G24" s="73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -3039,7 +3007,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -3056,30 +3024,30 @@
         <v>18</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G26" s="72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H26" s="72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" ref="I26:I29" ca="1" si="2">RANDBETWEEN(1,8)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" s="2"/>
     </row>
@@ -3088,30 +3056,30 @@
         <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G27" s="72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H27" s="72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J27" s="2"/>
     </row>
@@ -3120,7 +3088,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C28" s="66">
         <f t="shared" ca="1" si="0"/>
@@ -3130,20 +3098,20 @@
         <v>16</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G28" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H28" s="71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J28" s="2"/>
     </row>
@@ -3152,36 +3120,36 @@
         <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G29" s="72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H29" s="72" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B30" s="56"/>
       <c r="C30" s="56"/>
@@ -3199,30 +3167,30 @@
         <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C31" s="66">
         <f t="shared" ref="C31:C34" ca="1" si="3">RANDBETWEEN(1,9)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F31" s="20">
         <v>45332</v>
       </c>
       <c r="G31" s="73" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H31" s="71">
         <v>45332</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" ref="I31:I34" ca="1" si="4">RANDBETWEEN(1,8)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" s="2"/>
     </row>
@@ -3232,30 +3200,30 @@
         <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" s="66">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F32" s="20">
         <v>45332</v>
       </c>
       <c r="G32" s="73" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H32" s="71">
         <v>45332</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J32" s="2"/>
     </row>
@@ -3265,11 +3233,11 @@
         <v>24</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C33" s="66">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>14</v>
@@ -3288,7 +3256,7 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J33" s="18"/>
     </row>
@@ -3297,11 +3265,11 @@
         <v>24</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="66">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>16</v>

--- a/TongHop_Sprint/ProductBacklog_NHOM1.xlsx
+++ b/TongHop_Sprint/ProductBacklog_NHOM1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sthuflitedu-my.sharepoint.com/personal/22dh110220_st_huflit_edu_vn/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA74B18-43E1-41AA-832B-95A1B59AA58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7BB6ACE-F5B6-4B51-9125-E56FD0D36782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-84" yWindow="-84" windowWidth="23208" windowHeight="12408" tabRatio="798" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-84" yWindow="-84" windowWidth="23208" windowHeight="12408" tabRatio="798" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
   <si>
     <t>TEAM DEVELOPMENT STRUCTURE</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Scrum master</t>
+  </si>
+  <si>
+    <t>27/8/2024</t>
+  </si>
+  <si>
+    <t>19/11/2024</t>
   </si>
   <si>
     <t>Nguyễn Trọng Hiếu</t>
@@ -483,6 +489,9 @@
     <t>E-COMMERCE PROJECT - SPRINT BACKLOG</t>
   </si>
   <si>
+    <t>Min 1 , Max 5</t>
+  </si>
+  <si>
     <t>Name Of Dev</t>
   </si>
   <si>
@@ -504,128 +513,131 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>DEV1,DEV2,DEV3</t>
+  </si>
+  <si>
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>Thêm nhà cung cấp mới</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Xóa nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Thêm thể loại mới</t>
-  </si>
-  <si>
-    <t>14/9/2024</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin thể loại</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xóa thể loại </t>
+    <t>Trang chủ</t>
+  </si>
+  <si>
+    <t>Đăng ký</t>
   </si>
   <si>
     <t>Đăng nhập</t>
   </si>
   <si>
-    <t>Đăng ký</t>
+    <t xml:space="preserve">Thêm sách </t>
+  </si>
+  <si>
+    <t>Cập nhật sách</t>
+  </si>
+  <si>
+    <t>Xoá Sách</t>
+  </si>
+  <si>
+    <t>Thêm Tác giả</t>
+  </si>
+  <si>
+    <t>Cập nhật tác giả</t>
+  </si>
+  <si>
+    <t>Xoá tác giả</t>
+  </si>
+  <si>
+    <t>Thêm thể loại sách</t>
+  </si>
+  <si>
+    <t>Xoá thể loại sách</t>
+  </si>
+  <si>
+    <t>Cập nhật thể loại sách</t>
+  </si>
+  <si>
+    <t>Thêm nhà xuất bản</t>
+  </si>
+  <si>
+    <t>Cập nhật nhà xuất bản</t>
+  </si>
+  <si>
+    <t>Xoá nhà xuất bản</t>
   </si>
   <si>
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>Xem danh sách khách hàng</t>
-  </si>
-  <si>
-    <t>16/9/2024</t>
-  </si>
-  <si>
-    <t>17/9/2024</t>
-  </si>
-  <si>
-    <t>Xem thông tin chi tiết khách hàng</t>
-  </si>
-  <si>
-    <t>Thêm sách mới</t>
-  </si>
-  <si>
-    <t>18/9/2024</t>
-  </si>
-  <si>
-    <t>19/9/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xóa sách </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chỉnh sửa thông tin sách </t>
-  </si>
-  <si>
-    <t>Xem danh sách đơn hàng</t>
-  </si>
-  <si>
-    <t>20/9/2024</t>
-  </si>
-  <si>
-    <t>21/9/2024</t>
-  </si>
-  <si>
-    <t>Cập nhật trạng thái đơn hàng</t>
-  </si>
-  <si>
-    <t>Xem chi tiết đơn hàng</t>
+    <t xml:space="preserve">Thêm tài khoản </t>
+  </si>
+  <si>
+    <t>15/10/2024</t>
+  </si>
+  <si>
+    <t>Xoá tài khoản</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin tài khoản</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sách</t>
+  </si>
+  <si>
+    <t>Danh mục sách</t>
+  </si>
+  <si>
+    <t>Danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>Chi tiết sách</t>
   </si>
   <si>
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>24/9/2024</t>
-  </si>
-  <si>
-    <t>25/9/2024</t>
-  </si>
-  <si>
-    <t>Tìm kiếm sách xem thông tin chi tiết của sách</t>
-  </si>
-  <si>
-    <t>Thêm sách vào giỏ hàng</t>
-  </si>
-  <si>
-    <t>26/9/2024</t>
-  </si>
-  <si>
-    <t>28/9/2024</t>
-  </si>
-  <si>
-    <t>Xem và quản lý giỏ hàng</t>
+    <t>Quản lí đơn hàng</t>
+  </si>
+  <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>Thêm giỏ hàng</t>
+  </si>
+  <si>
+    <t>Thông tin giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xác nhận đơn hàng</t>
+  </si>
+  <si>
+    <t>Huỷ đơn hàng</t>
+  </si>
+  <si>
+    <t>Thanh toán đơn hàng</t>
   </si>
   <si>
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>Thanh toán đơn hàng</t>
-  </si>
-  <si>
-    <t>30/9/2024</t>
-  </si>
-  <si>
-    <t>Theo dõi đơn hàng</t>
-  </si>
-  <si>
-    <t>Áp dụng mã giảm giá</t>
-  </si>
-  <si>
-    <t>Xem thông tin chi tiết sách</t>
+    <t>Thông tin khách hàng - Khách hàng</t>
+  </si>
+  <si>
+    <t>15/11/2024</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin tài khoản - Khách hàng</t>
+  </si>
+  <si>
+    <t>Xem thông tin đơn hàng</t>
+  </si>
+  <si>
+    <t>Sách nổi bật được mua nhiều nhất</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -698,12 +710,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Aptos Narrow"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -761,7 +767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1001,66 +1007,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1069,8 +1020,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1090,29 +1039,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1170,6 +1096,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1185,55 +1125,25 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1652,7 +1562,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
@@ -1665,37 +1575,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1707,97 +1617,102 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5">
-        <v>45658</v>
-      </c>
-      <c r="F4" s="5">
-        <v>46023</v>
+      <c r="E4" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5">
-        <v>45658</v>
-      </c>
-      <c r="F5" s="5">
-        <v>46023</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5">
-        <v>45658</v>
-      </c>
-      <c r="F6" s="5">
-        <v>46023</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5">
-        <v>45658</v>
-      </c>
-      <c r="F7" s="5">
-        <v>46023</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5">
-        <v>45658</v>
-      </c>
-      <c r="F8" s="5">
-        <v>46023</v>
+        <v>18</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D8" xr:uid="{116EB57E-93A6-4873-B95C-0EA51E357D29}">
+      <formula1>$D$6:$D$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1808,133 +1723,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="142.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="11"/>
+    <col min="1" max="1" width="142.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="15" t="s">
-        <v>17</v>
+      <c r="A1" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="15" t="s">
-        <v>18</v>
+      <c r="A3" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="14" t="s">
-        <v>19</v>
+      <c r="A4" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="14" t="s">
-        <v>20</v>
+      <c r="A5" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
+      <c r="A6" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
+      <c r="A7" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="13" customFormat="1">
-      <c r="A9" s="12"/>
+      <c r="A8" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="11" customFormat="1">
+      <c r="A9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="16" t="s">
-        <v>24</v>
+      <c r="A10" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="10" customFormat="1">
-      <c r="A12" s="10" t="s">
-        <v>26</v>
+      <c r="A11" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11" t="s">
-        <v>27</v>
+      <c r="A13" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
-        <v>28</v>
+      <c r="A14" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="11" t="s">
-        <v>29</v>
+      <c r="A15" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
-        <v>30</v>
+      <c r="A16" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="11" t="s">
-        <v>31</v>
+      <c r="A17" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="13" customFormat="1"/>
+      <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="11" customFormat="1"/>
     <row r="20" spans="1:1" ht="15">
-      <c r="A20" s="15" t="s">
-        <v>33</v>
+      <c r="A20" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
-        <v>34</v>
+      <c r="A21" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
-        <v>35</v>
+      <c r="A22" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" s="13" customFormat="1"/>
+      <c r="A23" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="11" customFormat="1"/>
     <row r="25" spans="1:1" ht="15">
-      <c r="A25" s="15" t="s">
-        <v>37</v>
+      <c r="A25" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
-        <v>38</v>
+      <c r="A26" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1947,372 +1862,372 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B4BC31-BEF7-47A3-A02E-006F09C10F5E}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.45"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="9"/>
-    <col min="2" max="2" width="150.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="8" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="8"/>
-    <col min="7" max="9" width="8.85546875" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="150.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="6" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="6"/>
+    <col min="7" max="9" width="8.85546875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75">
-      <c r="A1" s="29"/>
-      <c r="B1" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="29"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" ht="12.75">
-      <c r="A2" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="17" t="s">
         <v>42</v>
       </c>
+      <c r="B2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="12.75">
-      <c r="A3" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
     </row>
     <row r="4" spans="1:3" ht="12.75">
-      <c r="A4" s="33">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="33">
+      <c r="B4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75">
-      <c r="A5" s="33">
-        <v>2</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="33">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75">
-      <c r="A6" s="33">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="33">
+      <c r="B6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75">
-      <c r="A7" s="33">
+      <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="33">
+      <c r="B7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75">
-      <c r="A8" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
+      <c r="A8" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
     </row>
     <row r="9" spans="1:3" ht="12.75">
-      <c r="A9" s="33">
+      <c r="A9" s="20">
         <f>A7+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="33">
+      <c r="B9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75">
-      <c r="A10" s="33">
+      <c r="A10" s="20">
         <f>A9+1</f>
         <v>6</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="33">
+      <c r="B10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75">
-      <c r="A11" s="33">
+      <c r="A11" s="20">
         <f>A10+1</f>
         <v>7</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="33">
+      <c r="B11" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75">
-      <c r="A12" s="33">
+      <c r="A12" s="20">
         <f t="shared" ref="A12:A14" si="0">A11+1</f>
         <v>8</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="33">
+      <c r="B12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75">
-      <c r="A13" s="33">
+      <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="33">
+      <c r="B13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75">
-      <c r="A14" s="33">
+      <c r="A14" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="33">
+      <c r="B14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75">
-      <c r="A15" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
+      <c r="A15" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
     </row>
     <row r="16" spans="1:3" ht="12.75">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="38"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" ht="12.75">
-      <c r="A17" s="40">
+      <c r="A17" s="27">
         <v>11</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="42">
+      <c r="B17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75">
-      <c r="A18" s="40">
+      <c r="A18" s="27">
         <v>12</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="42">
+      <c r="B18" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75">
-      <c r="A19" s="40">
+      <c r="A19" s="27">
         <v>13</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="42">
+      <c r="B19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="46"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:3" ht="12.75">
-      <c r="A21" s="40">
+      <c r="A21" s="27">
         <f>A19+1</f>
         <v>14</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="42">
+      <c r="B21" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75">
-      <c r="A22" s="40">
+      <c r="A22" s="27">
         <f>A21+1</f>
         <v>15</v>
       </c>
-      <c r="B22" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="42">
+      <c r="B22" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75">
-      <c r="A23" s="40">
+      <c r="A23" s="27">
         <f>A22+1</f>
         <v>16</v>
       </c>
-      <c r="B23" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="42">
+      <c r="B23" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75">
-      <c r="A24" s="44"/>
-      <c r="B24" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="46"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="33"/>
     </row>
     <row r="25" spans="1:3" ht="12.75">
-      <c r="A25" s="40">
+      <c r="A25" s="27">
         <f>A23+1</f>
         <v>17</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="42">
+      <c r="B25" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75">
-      <c r="A26" s="40">
+      <c r="A26" s="27">
         <f>A25+1</f>
         <v>18</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="42">
+      <c r="B26" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75">
-      <c r="A27" s="44"/>
-      <c r="B27" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="46"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="33"/>
     </row>
     <row r="28" spans="1:3" ht="12.75">
-      <c r="A28" s="40">
+      <c r="A28" s="27">
         <f>A26+1</f>
         <v>19</v>
       </c>
-      <c r="B28" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="42">
+      <c r="B28" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75">
-      <c r="A29" s="40">
+      <c r="A29" s="27">
         <f>A28+1</f>
         <v>20</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="42">
+      <c r="B29" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75">
-      <c r="A30" s="40">
+      <c r="A30" s="27">
         <f>A29+1</f>
         <v>21</v>
       </c>
-      <c r="B30" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="42">
+      <c r="B30" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75">
-      <c r="A31" s="44"/>
-      <c r="B31" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="46"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="33"/>
     </row>
     <row r="32" spans="1:3" ht="12.75">
-      <c r="A32" s="40">
+      <c r="A32" s="27">
         <v>22</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="42">
+      <c r="B32" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75">
-      <c r="A33" s="40">
+      <c r="A33" s="27">
         <f t="shared" ref="A33:A34" si="1">A32+1</f>
         <v>23</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="42">
+      <c r="B33" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75">
-      <c r="A34" s="49">
+      <c r="A34" s="36">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B34" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="42">
+      <c r="B34" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="29">
         <v>2</v>
       </c>
     </row>
@@ -2331,980 +2246,1166 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A1" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
+    <row r="1" spans="1:11" ht="34.5" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="B3" s="3"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="64" t="s">
+      <c r="C3" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="B4" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="E4" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="G4" s="50" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="65">
-        <f ca="1">SUM(C7:C34)</f>
+      <c r="H4" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53">
+        <f>SUM(C7:C41)</f>
+        <v>58</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="52">
+        <f>SUM(I7:I41)</f>
+        <v>58</v>
+      </c>
+      <c r="J5" s="52"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.15">
+      <c r="A6" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="52">
+        <v>1</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="53">
+        <v>5</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I7" s="52">
+        <v>5</v>
+      </c>
+      <c r="J7" s="52"/>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="52">
+        <v>2</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="53">
+        <v>1</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I8" s="52">
+        <v>1</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="52">
+        <v>3</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="53">
+        <v>1</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I9" s="52">
+        <v>1</v>
+      </c>
+      <c r="J9" s="52"/>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="52">
+        <v>4</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="53">
+        <v>1</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I10" s="52">
+        <v>1</v>
+      </c>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="52">
+        <v>5</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="53">
+        <v>2</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I11" s="52">
+        <v>2</v>
+      </c>
+      <c r="J11" s="52"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="52">
+        <v>6</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="53">
+        <v>1</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I12" s="52">
+        <v>1</v>
+      </c>
+      <c r="J12" s="52"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="52">
+        <v>7</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="53">
+        <v>1</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I13" s="52">
+        <v>1</v>
+      </c>
+      <c r="J13" s="52"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="52">
+        <v>8</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="53">
+        <v>2</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I14" s="52">
+        <v>2</v>
+      </c>
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="52">
+        <v>9</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="53">
+        <v>1</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I15" s="52">
+        <v>1</v>
+      </c>
+      <c r="J15" s="52"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="52">
+        <v>10</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="53">
+        <v>1</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I16" s="52">
+        <v>1</v>
+      </c>
+      <c r="J16" s="52"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="52">
+        <v>11</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="53">
+        <v>1</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I17" s="52">
+        <v>1</v>
+      </c>
+      <c r="J17" s="52"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="52">
+        <v>12</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="53">
+        <v>2</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I18" s="52">
+        <v>2</v>
+      </c>
+      <c r="J18" s="52"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="52">
+        <v>13</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="53">
+        <v>1</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I19" s="52">
+        <v>1</v>
+      </c>
+      <c r="J19" s="52"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="52">
+        <v>14</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="53">
+        <v>2</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I20" s="52">
+        <v>2</v>
+      </c>
+      <c r="J20" s="52"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="52">
+        <v>15</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="53">
+        <v>1</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="40">
+        <v>45301</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="40">
+        <v>45301</v>
+      </c>
+      <c r="I21" s="52">
+        <v>1</v>
+      </c>
+      <c r="J21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.15" customHeight="1">
+      <c r="A22" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.15" customHeight="1">
+      <c r="A23" s="52">
+        <v>16</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="53">
+        <v>1</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="40">
+        <v>45332</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="40">
+        <v>45332</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="52">
+        <v>1</v>
+      </c>
+      <c r="J23" s="52"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.15" customHeight="1">
+      <c r="A24" s="52">
+        <v>17</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="53">
+        <v>1</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="40">
+        <v>45332</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="40">
+        <v>45332</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="52">
+        <v>1</v>
+      </c>
+      <c r="J24" s="52"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.15" customHeight="1">
+      <c r="A25" s="52">
+        <v>18</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="53">
+        <v>2</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="40">
+        <v>45332</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="40">
+        <v>45332</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="52">
+        <v>2</v>
+      </c>
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.15" customHeight="1">
+      <c r="A26" s="52">
+        <v>19</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="53">
+        <v>2</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="40">
+        <v>45332</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="40">
+        <v>45332</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="52">
+        <v>2</v>
+      </c>
+      <c r="J26" s="52"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.15" customHeight="1">
+      <c r="A27" s="52">
+        <v>20</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="53">
+        <v>3</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="40">
+        <v>45332</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="40">
+        <v>45332</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="52">
+        <v>3</v>
+      </c>
+      <c r="J27" s="52"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.15" customHeight="1">
+      <c r="A28" s="52">
+        <v>21</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="53">
+        <v>3</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="40">
+        <v>45332</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="40">
+        <v>45332</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="52">
+        <v>3</v>
+      </c>
+      <c r="J28" s="52"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.15" customHeight="1">
+      <c r="A29" s="52">
+        <v>22</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="53">
+        <v>2</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="40">
+        <v>45332</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="40">
+        <v>45332</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="52">
+        <v>2</v>
+      </c>
+      <c r="J29" s="52"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.15" customHeight="1">
+      <c r="A31" s="52">
+        <v>23</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="53">
+        <v>3</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="40">
+        <v>45302</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="40">
+        <v>45302</v>
+      </c>
+      <c r="I31" s="52">
+        <v>3</v>
+      </c>
+      <c r="J31" s="52"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.15" customHeight="1">
+      <c r="A32" s="52">
+        <v>24</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="53">
+        <v>1</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="40">
+        <v>45302</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="40">
+        <v>45302</v>
+      </c>
+      <c r="I32" s="52">
+        <v>1</v>
+      </c>
+      <c r="J32" s="52"/>
+    </row>
+    <row r="33" spans="1:10" ht="13.15" customHeight="1">
+      <c r="A33" s="52">
+        <v>25</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="53">
+        <v>2</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="40">
+        <v>45302</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" s="40">
+        <v>45302</v>
+      </c>
+      <c r="I33" s="52">
+        <v>2</v>
+      </c>
+      <c r="J33" s="52"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="52">
+        <v>26</v>
+      </c>
+      <c r="B34" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
-        <f ca="1">SUM(C7:C34)</f>
-        <v>116</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.15">
-      <c r="A6" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-    </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="2">
+      <c r="C34" s="53">
+        <v>2</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="40">
+        <v>45302</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="40">
+        <v>45302</v>
+      </c>
+      <c r="I34" s="52">
+        <v>2</v>
+      </c>
+      <c r="J34" s="52"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="52">
+        <v>27</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="53">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="66">
-        <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="24">
-        <v>45544</v>
-      </c>
-      <c r="F7" s="20">
-        <v>45574</v>
-      </c>
-      <c r="G7" s="68">
-        <v>45544</v>
-      </c>
-      <c r="H7" s="69">
-        <v>45574</v>
-      </c>
-      <c r="I7" s="2">
-        <f ca="1">RANDBETWEEN(1,8)</f>
-        <v>7</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="66">
-        <f t="shared" ref="C8:C29" ca="1" si="0">RANDBETWEEN(1,7)</f>
+      <c r="D35" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="40">
+        <v>45302</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="40">
+        <v>45302</v>
+      </c>
+      <c r="I35" s="52">
         <v>1</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="24">
-        <v>45574</v>
-      </c>
-      <c r="F8" s="20">
-        <v>45605</v>
-      </c>
-      <c r="G8" s="70">
-        <v>45574</v>
-      </c>
-      <c r="H8" s="71">
-        <v>45605</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" ref="I8:I24" ca="1" si="1">RANDBETWEEN(1,8)</f>
-        <v>6</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="24">
-        <v>45574</v>
-      </c>
-      <c r="F9" s="20">
-        <v>45605</v>
-      </c>
-      <c r="G9" s="70">
-        <v>45574</v>
-      </c>
-      <c r="H9" s="71">
-        <v>45605</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2">
+      <c r="J35" s="52"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="52">
+        <v>28</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="53">
+        <v>2</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="40">
+        <v>45302</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="40">
+        <v>45302</v>
+      </c>
+      <c r="I36" s="52">
+        <v>2</v>
+      </c>
+      <c r="J36" s="52"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="52">
+        <v>29</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="53">
+        <v>2</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="40">
+        <v>45333</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="40">
+        <v>45333</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="52">
+        <v>2</v>
+      </c>
+      <c r="J38" s="52"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="52">
+        <v>30</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="53">
+        <v>2</v>
+      </c>
+      <c r="D39" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="40">
+        <v>45333</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="40">
+        <v>45333</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I39" s="52">
+        <v>2</v>
+      </c>
+      <c r="J39" s="52"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="52">
+        <v>31</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="53">
+        <v>2</v>
+      </c>
+      <c r="D40" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="40">
+        <v>45333</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="40">
+        <v>45333</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I40" s="52">
+        <v>2</v>
+      </c>
+      <c r="J40" s="52"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="52">
+        <v>32</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="53">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="24">
-        <v>45574</v>
-      </c>
-      <c r="F10" s="20">
-        <v>45605</v>
-      </c>
-      <c r="G10" s="70">
-        <v>45574</v>
-      </c>
-      <c r="H10" s="71">
-        <v>45605</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="24">
-        <v>45635</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="70">
-        <v>45635</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="24">
-        <v>45635</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="70">
-        <v>45635</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="24">
-        <v>45635</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="70">
-        <v>45635</v>
-      </c>
-      <c r="H13" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="24">
-        <v>45635</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="70">
-        <v>45635</v>
-      </c>
-      <c r="H14" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D41" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="40">
+        <v>45333</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="40">
+        <v>45333</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I41" s="52">
         <v>4</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="24">
-        <v>45635</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="70">
-        <v>45635</v>
-      </c>
-      <c r="H15" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.15" customHeight="1">
-      <c r="A16" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.15" customHeight="1">
-      <c r="A17" s="2">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.15" customHeight="1">
-      <c r="A18" s="2">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.15" customHeight="1">
-      <c r="A19" s="2">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.15" customHeight="1">
-      <c r="A20" s="2">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.15" customHeight="1">
-      <c r="A21" s="2">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.15" customHeight="1">
-      <c r="A22" s="2">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.15" customHeight="1">
-      <c r="A23" s="2">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="62"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.15" customHeight="1">
-      <c r="A26" s="2">
-        <v>18</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="2">
-        <f t="shared" ref="I26:I29" ca="1" si="2">RANDBETWEEN(1,8)</f>
-        <v>2</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2">
-        <v>19</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="2">
-        <v>20</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2">
-        <v>21</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="66">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="2">
-        <f>A29+1</f>
-        <v>22</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="66">
-        <f t="shared" ref="C31:C34" ca="1" si="3">RANDBETWEEN(1,9)</f>
-        <v>5</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="20">
-        <v>45332</v>
-      </c>
-      <c r="G31" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="71">
-        <v>45332</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" ref="I31:I34" ca="1" si="4">RANDBETWEEN(1,8)</f>
-        <v>7</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="2">
-        <f>A31+1</f>
-        <v>23</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="20">
-        <v>45332</v>
-      </c>
-      <c r="G32" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="H32" s="71">
-        <v>45332</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="18">
-        <f t="shared" ref="A33" si="5">A32+1</f>
-        <v>24</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="24">
-        <v>45332</v>
-      </c>
-      <c r="F33" s="20">
-        <v>45361</v>
-      </c>
-      <c r="G33" s="70">
-        <v>45332</v>
-      </c>
-      <c r="H33" s="71">
-        <v>45361</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="17">
-        <v>24</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="24">
-        <v>45392</v>
-      </c>
-      <c r="F34" s="20">
-        <v>45422</v>
-      </c>
-      <c r="G34" s="70">
-        <v>45392</v>
-      </c>
-      <c r="H34" s="71">
-        <v>45422</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="D35" s="19"/>
+      <c r="J41" s="52"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="D42" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A25:J25"/>
     <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A22:J22"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A6:J6"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D36 D23:D29 D7:D21 D38:D41" xr:uid="{E6CF43F6-78DC-461A-9B34-E4FC406D89FE}">
+      <formula1>$K$7:$K$9</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
